--- a/source_data_old/QuaL_2_data.xlsx
+++ b/source_data_old/QuaL_2_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step3_NewData\_Formatted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{207004CC-3760-40C8-8B76-56F748F2E333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB3753D6-0AE9-46CE-A1B3-8A02AFDBA7FA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D063A5C2-587A-448A-BE6B-799B2D134B70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,7 +640,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1496,11 +1496,11 @@
   <dimension ref="A1:U114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="R76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
@@ -1520,7 +1520,7 @@
     <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1585,9 +1585,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" customFormat="1">
+    <row r="2" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1647,9 +1647,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:21" customFormat="1">
+    <row r="3" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1709,9 +1709,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:21" customFormat="1">
+    <row r="4" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1771,9 +1771,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:21" customFormat="1">
+    <row r="5" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1833,9 +1833,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:21" customFormat="1">
+    <row r="6" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1895,9 +1895,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:21" customFormat="1">
+    <row r="7" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1957,9 +1957,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:21" customFormat="1">
+    <row r="8" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2019,9 +2019,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:21" customFormat="1">
+    <row r="9" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2081,9 +2081,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:21" customFormat="1">
+    <row r="10" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2143,9 +2143,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:21" customFormat="1">
+    <row r="11" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2205,9 +2205,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:21" customFormat="1">
+    <row r="12" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -2268,9 +2268,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:21" customFormat="1">
+    <row r="13" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -2330,9 +2330,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:21" customFormat="1">
+    <row r="14" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2392,9 +2392,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:21" customFormat="1">
+    <row r="15" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2454,9 +2454,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:21" customFormat="1">
+    <row r="16" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2516,9 +2516,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:21" customFormat="1">
+    <row r="17" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -2578,9 +2578,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:21" customFormat="1">
+    <row r="18" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2640,9 +2640,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:21" customFormat="1">
+    <row r="19" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2702,9 +2702,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:21" customFormat="1">
+    <row r="20" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2764,9 +2764,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:21" customFormat="1">
+    <row r="21" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2826,9 +2826,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:21" customFormat="1">
+    <row r="22" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -2888,9 +2888,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:21" customFormat="1">
+    <row r="23" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2950,9 +2950,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:21" customFormat="1">
+    <row r="24" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -3012,9 +3012,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:21" customFormat="1">
+    <row r="25" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -3074,9 +3074,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:21" customFormat="1">
+    <row r="26" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -3136,9 +3136,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:21" customFormat="1">
+    <row r="27" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -3198,9 +3198,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:21" customFormat="1">
+    <row r="28" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -3260,9 +3260,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:21" customFormat="1">
+    <row r="29" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -3322,9 +3322,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:21" customFormat="1">
+    <row r="30" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -3384,9 +3384,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:21" customFormat="1">
+    <row r="31" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -3446,9 +3446,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:21" customFormat="1">
+    <row r="32" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -3508,9 +3508,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:21" customFormat="1">
+    <row r="33" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3570,9 +3570,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:21" customFormat="1">
+    <row r="34" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -3632,9 +3632,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:21" customFormat="1">
+    <row r="35" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -3694,9 +3694,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:21" customFormat="1">
+    <row r="36" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -3756,9 +3756,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:21" customFormat="1">
+    <row r="37" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -3818,9 +3818,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:21" customFormat="1">
+    <row r="38" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -3880,9 +3880,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="39" spans="1:21" customFormat="1">
+    <row r="39" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -3942,9 +3942,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="1:21" customFormat="1">
+    <row r="40" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -4004,9 +4004,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:21" customFormat="1">
+    <row r="41" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -4066,9 +4066,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="42" spans="1:21" customFormat="1">
+    <row r="42" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -4128,9 +4128,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="43" spans="1:21" customFormat="1">
+    <row r="43" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -4190,9 +4190,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:21" customFormat="1">
+    <row r="44" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -4252,9 +4252,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:21" customFormat="1">
+    <row r="45" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -4314,9 +4314,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:21" customFormat="1">
+    <row r="46" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -4376,9 +4376,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:21" customFormat="1">
+    <row r="47" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -4438,9 +4438,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:21" customFormat="1">
+    <row r="48" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -4500,9 +4500,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" spans="1:21" customFormat="1">
+    <row r="49" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -4562,9 +4562,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:21" customFormat="1">
+    <row r="50" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -4624,9 +4624,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="51" spans="1:21" customFormat="1">
+    <row r="51" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -4686,9 +4686,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="52" spans="1:21" customFormat="1">
+    <row r="52" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -4748,9 +4748,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:21" customFormat="1">
+    <row r="53" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -4810,9 +4810,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:21" customFormat="1">
+    <row r="54" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4872,9 +4872,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="55" spans="1:21" customFormat="1">
+    <row r="55" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -4934,9 +4934,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="56" spans="1:21" customFormat="1">
+    <row r="56" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -4996,9 +4996,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="57" spans="1:21" customFormat="1">
+    <row r="57" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -5058,9 +5058,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="1:21" customFormat="1">
+    <row r="58" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -5120,9 +5120,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="59" spans="1:21" customFormat="1">
+    <row r="59" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -5182,9 +5182,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="60" spans="1:21" customFormat="1">
+    <row r="60" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -5244,9 +5244,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="61" spans="1:21" customFormat="1">
+    <row r="61" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -5306,9 +5306,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:21" customFormat="1">
+    <row r="62" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -5368,9 +5368,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="63" spans="1:21" customFormat="1">
+    <row r="63" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -5430,9 +5430,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="64" spans="1:21" customFormat="1">
+    <row r="64" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -5492,9 +5492,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="65" spans="1:21" customFormat="1">
+    <row r="65" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -5555,9 +5555,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="66" spans="1:21" customFormat="1">
+    <row r="66" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -5618,9 +5618,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="67" spans="1:21" customFormat="1">
+    <row r="67" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -5681,9 +5681,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:21" customFormat="1">
+    <row r="68" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -5744,9 +5744,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="69" spans="1:21" customFormat="1">
+    <row r="69" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -5807,9 +5807,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:21" customFormat="1">
+    <row r="70" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -5870,9 +5870,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="71" spans="1:21" customFormat="1">
+    <row r="71" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -5933,9 +5933,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="72" spans="1:21" customFormat="1">
+    <row r="72" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -5996,9 +5996,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:21" customFormat="1">
+    <row r="73" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -6059,9 +6059,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="74" spans="1:21" customFormat="1">
+    <row r="74" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -6124,9 +6124,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="75" spans="1:21" customFormat="1">
+    <row r="75" spans="1:21" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -6187,9 +6187,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B76" s="3">
         <v>2</v>
@@ -6252,9 +6252,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B77" s="3">
         <v>2</v>
@@ -6317,9 +6317,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="180">
+    <row r="78" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B78" s="3">
         <v>2</v>
@@ -6382,9 +6382,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B79" s="3">
         <v>2</v>
@@ -6447,9 +6447,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B80" s="3">
         <v>2</v>
@@ -6512,9 +6512,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B81" s="3">
         <v>2</v>
@@ -6577,9 +6577,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="60">
+    <row r="82" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B82" s="3">
         <v>2</v>
@@ -6642,9 +6642,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B83" s="3">
         <v>2</v>
@@ -6707,9 +6707,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B84" s="3">
         <v>2</v>
@@ -6772,9 +6772,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B85" s="3">
         <v>2</v>
@@ -6837,9 +6837,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B86" s="3">
         <v>2</v>
@@ -6902,9 +6902,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B87" s="3">
         <v>2</v>
@@ -6967,9 +6967,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="30">
+    <row r="88" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B88" s="3">
         <v>2</v>
@@ -7032,9 +7032,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B89" s="3">
         <v>2</v>
@@ -7097,9 +7097,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B90" s="3">
         <v>2</v>
@@ -7162,9 +7162,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B91" s="3">
         <v>2</v>
@@ -7227,9 +7227,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="45">
+    <row r="92" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B92" s="3">
         <v>2</v>
@@ -7292,9 +7292,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B93" s="3">
         <v>2</v>
@@ -7357,9 +7357,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B94" s="3">
         <v>2</v>
@@ -7422,9 +7422,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B95" s="3">
         <v>2</v>
@@ -7487,9 +7487,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B96" s="3">
         <v>2</v>
@@ -7552,9 +7552,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B97" s="3">
         <v>2</v>
@@ -7617,9 +7617,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="30">
+    <row r="98" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B98" s="3">
         <v>2</v>
@@ -7682,9 +7682,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B99" s="3">
         <v>2</v>
@@ -7747,9 +7747,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B100" s="3">
         <v>2</v>
@@ -7812,9 +7812,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B101" s="3">
         <v>2</v>
@@ -7877,9 +7877,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="45">
+    <row r="102" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B102" s="3">
         <v>2</v>
@@ -7942,9 +7942,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="105">
+    <row r="103" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B103" s="3">
         <v>2</v>
@@ -8007,9 +8007,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="45">
+    <row r="104" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B104" s="3">
         <v>2</v>
@@ -8072,9 +8072,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="30">
+    <row r="105" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B105" s="3">
         <v>2</v>
@@ -8137,9 +8137,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
@@ -8202,9 +8202,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
@@ -8267,9 +8267,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B108" s="3">
         <v>2</v>
@@ -8332,9 +8332,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B109" s="3">
         <v>2</v>
@@ -8397,9 +8397,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B110" s="3">
         <v>2</v>
@@ -8462,9 +8462,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B111" s="3">
         <v>2</v>
@@ -8527,9 +8527,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B112" s="3">
         <v>2</v>
@@ -8592,9 +8592,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B113" s="3">
         <v>2</v>
@@ -8657,9 +8657,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="30">
+    <row r="114" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B114" s="3">
         <v>2</v>
@@ -8732,14 +8732,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -8962,6 +8954,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8972,13 +8972,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{337D0C51-1A66-4CDF-A440-9C2724157110}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89B81C59-A588-419E-9814-0E1D382A2F81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="81cf108f-c583-47b3-8493-b6de3c823d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89B81C59-A588-419E-9814-0E1D382A2F81}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{337D0C51-1A66-4CDF-A440-9C2724157110}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C18FD15A-B060-4578-9EA8-D3860701CFBD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C18FD15A-B060-4578-9EA8-D3860701CFBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>